--- a/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,47 +686,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,89; 25,36</t>
+          <t>9,27; 23,31</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,92; 19,6</t>
+          <t>4,85; 18,45</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,34; 15,41</t>
+          <t>3,46; 14,92</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,0; 16,62</t>
+          <t>0,0; 17,26</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>7,73; 27,9</t>
+          <t>6,31; 27,96</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 26,95</t>
+          <t>7,69; 26,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,78; 19,09</t>
+          <t>8,33; 20,06</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>7,19; 18,7</t>
+          <t>7,5; 18,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6,48; 16,47</t>
+          <t>6,68; 16,55</t>
         </is>
       </c>
     </row>
@@ -795,47 +796,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>12,31; 29,73</t>
+          <t>11,57; 30,1</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,6; 15,77</t>
+          <t>2,54; 17,2</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,85; 15,27</t>
+          <t>2,71; 14,89</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 34,67</t>
+          <t>9,75; 34,49</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,67; 20,92</t>
+          <t>3,56; 20,63</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>5,36; 23,45</t>
+          <t>5,0; 22,87</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,71; 27,91</t>
+          <t>13,61; 28,39</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>4,26; 15,02</t>
+          <t>3,84; 15,13</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,6; 15,82</t>
+          <t>5,82; 16,24</t>
         </is>
       </c>
     </row>
@@ -905,22 +906,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,0; 39,96</t>
+          <t>23,41; 40,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>8,43; 18,23</t>
+          <t>8,18; 18,23</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9,5; 23,88</t>
+          <t>9,23; 24,98</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,26; 35,67</t>
+          <t>4,67; 37,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -930,22 +931,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,44</t>
+          <t>0,0; 35,8</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>21,2; 36,71</t>
+          <t>21,24; 37,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>6,75; 15,48</t>
+          <t>6,61; 15,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>9,21; 22,8</t>
+          <t>8,96; 22,87</t>
         </is>
       </c>
     </row>
@@ -1015,47 +1016,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,36; 22,51</t>
+          <t>13,41; 22,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,84; 15,27</t>
+          <t>7,82; 15,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,86; 24,77</t>
+          <t>14,29; 24,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,26; 27,65</t>
+          <t>9,4; 28,05</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 15,31</t>
+          <t>3,63; 16,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,16; 11,06</t>
+          <t>1,11; 10,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>13,53; 21,78</t>
+          <t>13,75; 21,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 13,48</t>
+          <t>7,27; 13,28</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>11,19; 19,49</t>
+          <t>10,79; 18,91</t>
         </is>
       </c>
     </row>
@@ -1125,47 +1126,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 18,21</t>
+          <t>3,07; 17,67</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>5,66; 16,16</t>
+          <t>5,67; 16,12</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>14,16; 28,86</t>
+          <t>13,98; 28,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>8,88; 36,15</t>
+          <t>8,24; 33,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,46</t>
+          <t>0,0; 11,64</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>14,91; 36,83</t>
+          <t>14,95; 35,29</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,21; 20,65</t>
+          <t>7,25; 20,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>4,63; 12,14</t>
+          <t>4,5; 12,71</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,21; 28,86</t>
+          <t>16,77; 29,32</t>
         </is>
       </c>
     </row>
@@ -1245,37 +1246,37 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 81,12</t>
+          <t>0,0; 78,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,98; 18,4</t>
+          <t>1,98; 17,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 27,53</t>
+          <t>7,95; 27,83</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,33; 32,06</t>
+          <t>6,28; 33,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>1,83; 17,86</t>
+          <t>1,77; 16,24</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,16; 26,16</t>
+          <t>6,17; 26,12</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,6; 30,81</t>
+          <t>7,77; 32,68</t>
         </is>
       </c>
     </row>
@@ -1345,47 +1346,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>15,97; 22,1</t>
+          <t>15,78; 21,93</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>8,59; 12,92</t>
+          <t>8,52; 13,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 19,05</t>
+          <t>13,12; 19,28</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>10,68; 19,34</t>
+          <t>10,4; 19,27</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,08; 12,84</t>
+          <t>6,2; 12,25</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>10,28; 17,7</t>
+          <t>9,91; 17,7</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>15,16; 20,5</t>
+          <t>14,98; 20,33</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>8,45; 12,06</t>
+          <t>8,26; 11,94</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>12,8; 17,38</t>
+          <t>12,74; 17,34</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo motivo para dejar de fumar fue, al menos, las molestias por causa del tabaco</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>15487</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11740</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>7414</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>1956</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8123</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9323</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>17443</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>19863</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>16736</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8890; 22352</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>5436; 20680</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>3233; 13929</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>0; 6571</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3263; 14456</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>4723; 16263</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>11155; 26872</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>12281; 30708</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10339; 25610</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>15495</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>6730</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>5593</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>8317</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5163</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8233</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>23812</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>11893</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>13826</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>9239; 24031</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>2285; 15463</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>1978; 10849</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>3944; 13956</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1922; 11153</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3348; 15305</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>16371; 34159</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>5523; 21781</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>8131; 22696</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>32611</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20326</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>15379</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>4241</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>936</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>36852</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>20326</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>16315</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24982; 42686</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13255; 29536</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>9076; 24548</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1138; 9122</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0; 2033</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>0; 4721</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>27838; 48807</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13037; 30051</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9987; 25494</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>47744</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>34823</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>43044</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>10938</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>8993</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>3850</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>58682</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43815</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>46894</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>36489; 60957</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>24931; 47836</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>32537; 56128</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>5952; 17766</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>4106; 18349</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>960; 8978</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46122; 71903</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>31402; 57393</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>33920; 59455</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>5548</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>12656</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>22487</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>7075</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2201</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>17144</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>12623</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>14857</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>39631</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1953; 11236</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>7215; 20494</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>15051; 31007</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>2924; 11811</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 8082</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>10496; 24769</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>7181; 20043</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>8841; 24991</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>29837; 52164</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>9641</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6247</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3872</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>9641</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>7382</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1460</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 1589</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4381</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>972; 8794</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>4844; 16957</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>2270; 12051</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>964; 8855</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4133; 17489</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>3239; 13631</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>116885</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>86275</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>95051</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>36399</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>34120</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>45732</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>153284</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>120395</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>140783</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>98389; 136750</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>69519; 107720</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>79415; 116761</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>26066; 48311</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>23830; 47113</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>33156; 59206</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>130992; 177721</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>99105; 143303</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>119717; 162963</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P25A$molestias-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
